--- a/CoreRulebook/Data/Archetypes/Scholar.xlsx
+++ b/CoreRulebook/Data/Archetypes/Scholar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5A2C69-3C12-4C08-AEFF-E32342BE53E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FD8AE2-60E3-4CB0-9FDD-7CDA224DFB0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Level</t>
   </si>
@@ -140,19 +140,31 @@
     <t>Ascendant</t>
   </si>
   <si>
-    <t>Hyperspecialisation</t>
-  </si>
-  <si>
     <t>Temporal, plus a choice of any three remaining spell disciplines</t>
   </si>
   <si>
-    <t xml:space="preserve">Scholarly Ascendancy </t>
-  </si>
-  <si>
     <t>Higher Education, Logical Analysis</t>
   </si>
   <si>
     <t>Logical Analysis II</t>
+  </si>
+  <si>
+    <t>Continuing Education</t>
+  </si>
+  <si>
+    <t>Continuing Education II</t>
+  </si>
+  <si>
+    <t>Continuing Education III</t>
+  </si>
+  <si>
+    <t>Ultimate Discoveries</t>
+  </si>
+  <si>
+    <t>Continuing Education IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholarly Spellcasting </t>
   </si>
 </sst>
 </file>
@@ -528,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -579,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -695,6 +707,9 @@
       <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -702,7 +717,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -716,9 +731,6 @@
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -740,9 +752,6 @@
       <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
       <c r="E9">
         <v>4</v>
       </c>
@@ -762,7 +771,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -785,6 +797,9 @@
       <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
       <c r="E11">
         <v>5</v>
       </c>
@@ -825,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -843,7 +858,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -858,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>7</v>
@@ -875,6 +893,9 @@
       <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
       <c r="E16">
         <v>7</v>
       </c>
@@ -888,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -905,9 +926,6 @@
       <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
       <c r="E18">
         <v>8</v>
       </c>
@@ -923,6 +941,9 @@
       <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
       <c r="E19">
         <v>9</v>
       </c>
@@ -952,6 +973,9 @@
       </c>
       <c r="C21" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
       </c>
       <c r="E21">
         <v>10</v>
